--- a/data/interim/df_rev_yr.xlsx
+++ b/data/interim/df_rev_yr.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12139.59126094833</v>
+        <v>12257.05921916631</v>
       </c>
       <c r="F2" t="n">
-        <v>12143.7572607141</v>
+        <v>12264.74107155287</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9996569430962484</v>
+        <v>0.9993736637127728</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.16599976577163</v>
+        <v>-7.681852386558603</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22155.00866780538</v>
+        <v>22155.01068659538</v>
       </c>
       <c r="F3" t="n">
         <v>22366.51210516944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9905437452040108</v>
+        <v>0.9905438354635019</v>
       </c>
       <c r="H3" t="n">
-        <v>-211.5034373640592</v>
+        <v>-211.5014185740583</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5344.5977777917</v>
+        <v>5393.3146806458</v>
       </c>
       <c r="F4" t="n">
-        <v>5429.604145949532</v>
+        <v>5480.314268349971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9843439105553862</v>
+        <v>0.9841250732268014</v>
       </c>
       <c r="H4" t="n">
-        <v>-85.00636815783218</v>
+        <v>-86.99958770417106</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9924.9745474465</v>
+        <v>10015.5747246623</v>
       </c>
       <c r="F5" t="n">
-        <v>10094.34024162305</v>
+        <v>10190.74930421643</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9832217173066753</v>
+        <v>0.9828104318608196</v>
       </c>
       <c r="H5" t="n">
-        <v>-169.3656941765548</v>
+        <v>-175.1745795541337</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6845.61306622423</v>
+        <v>6912.461441374608</v>
       </c>
       <c r="F6" t="n">
-        <v>6766.374877278001</v>
+        <v>6835.136925603334</v>
       </c>
       <c r="G6" t="n">
-        <v>1.011710582163031</v>
+        <v>1.011312796892426</v>
       </c>
       <c r="H6" t="n">
-        <v>79.23818894622946</v>
+        <v>77.32451577127358</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12230.03412035888</v>
+        <v>12230.03613914888</v>
       </c>
       <c r="F7" t="n">
         <v>12272.17186354639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.996566398869244</v>
+        <v>0.9965665633706887</v>
       </c>
       <c r="H7" t="n">
-        <v>-42.13774318750438</v>
+        <v>-42.13572439750351</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
